--- a/data/trans_dic/P19C06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.005476276187434163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.003576146284339676</v>
+        <v>0.003576146284339677</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.006907125431215911</v>
@@ -685,7 +685,7 @@
         <v>0.01165647385999387</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.009652053930204381</v>
+        <v>0.009652053930204383</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.005590976229242174</v>
@@ -697,7 +697,7 @@
         <v>0.008622347510388378</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.006717800781584463</v>
+        <v>0.006717800781584462</v>
       </c>
     </row>
     <row r="5">
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0007676028036640007</v>
+        <v>0.0007644778808807827</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.001836069492303757</v>
+        <v>0.001827318681980625</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.008147240688224061</v>
+        <v>0.007744974185064935</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0044329424059217</v>
+        <v>0.004212252641551342</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004831675261313261</v>
+        <v>0.00499350378056169</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001887574246880217</v>
+        <v>0.001963587083323531</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.005089843116465352</v>
+        <v>0.004921765157954315</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.003723986689493929</v>
+        <v>0.004162921995032243</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.003856260734526736</v>
+        <v>0.003537962490701678</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01273639928154181</v>
+        <v>0.01444673821416866</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0105350183233908</v>
+        <v>0.01103198013145163</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02120793300828824</v>
+        <v>0.02118036845880083</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01040757172495397</v>
+        <v>0.01096213235465101</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01876152604343431</v>
+        <v>0.01720782310495121</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03061017704501291</v>
+        <v>0.02925937053718261</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02359602579676733</v>
+        <v>0.02431155568799749</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01870792502591024</v>
+        <v>0.01716636014456437</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01192309337027996</v>
+        <v>0.01176761712464519</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0176251735455861</v>
+        <v>0.0163179723424162</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01663115884799393</v>
+        <v>0.01805146768013217</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01187263342983472</v>
+        <v>0.0114044907389591</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007323398933375936</v>
+        <v>0.008064661876274781</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007155260192017784</v>
+        <v>0.007386705738887439</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005984444905981969</v>
+        <v>0.005883616947609454</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004648612194090257</v>
+        <v>0.004857634190619452</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.007099972508032246</v>
+        <v>0.007263094843016463</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006816743032266603</v>
+        <v>0.007013838116415421</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002413409042462425</v>
+        <v>0.002433278414628512</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006308750433638384</v>
+        <v>0.006006860513444622</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.008848191499993718</v>
+        <v>0.008677170106244589</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008757272220671465</v>
+        <v>0.008999760320592243</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005047506182315028</v>
+        <v>0.005034236026338932</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.006350085647746849</v>
+        <v>0.006580917188915582</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02752904825957318</v>
+        <v>0.02617751840282153</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0273965618546267</v>
+        <v>0.02682946094408774</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02165700800228482</v>
+        <v>0.0208969767178985</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02068196989365711</v>
+        <v>0.02210400694597428</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02364757680836017</v>
+        <v>0.02407489314964579</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02201845051100962</v>
+        <v>0.02216399972739597</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01377396370615142</v>
+        <v>0.01522953529225283</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01859994612996202</v>
+        <v>0.01922871438058005</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02104602951181993</v>
+        <v>0.02111282060354376</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0212800302197814</v>
+        <v>0.02112748951500612</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0142293428625164</v>
+        <v>0.01429230306019783</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0174454979633972</v>
+        <v>0.01722839765783714</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003475087434608109</v>
+        <v>0.001860479001550404</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002967235548572175</v>
+        <v>0.003051074674490437</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007571870019058593</v>
+        <v>0.007729625336655417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002216050441698484</v>
+        <v>0.002312933102781328</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006684266817519006</v>
+        <v>0.007364572438179569</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008984140959015612</v>
+        <v>0.008818938492085824</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003305545170679239</v>
+        <v>0.003278961208769004</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007185659977411068</v>
+        <v>0.006951493679215662</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006234521711263557</v>
+        <v>0.006640351756429817</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007831453054721516</v>
+        <v>0.007753751584649226</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007153892863644615</v>
+        <v>0.0071814220365873</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.005925636600389004</v>
+        <v>0.005775465050973243</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01997617534831358</v>
+        <v>0.02109253311925326</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0193019934900138</v>
+        <v>0.01842369122498649</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03361123521363833</v>
+        <v>0.03567954356522074</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01443972954199971</v>
+        <v>0.01454879147406082</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02749088382008763</v>
+        <v>0.02865042894109796</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03002035753273616</v>
+        <v>0.02961499224922858</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01877133959880065</v>
+        <v>0.01970922244366803</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0210682827143422</v>
+        <v>0.02043446194469621</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01915680955584017</v>
+        <v>0.01886729349929477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02141724838796903</v>
+        <v>0.01991352916115722</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02300001629108419</v>
+        <v>0.02216848358218303</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01474262449140243</v>
+        <v>0.01444919577767359</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.01215144817920455</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.008394543077930413</v>
+        <v>0.008394543077930415</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.009776071086119189</v>
@@ -1105,7 +1105,7 @@
         <v>0.01839442109854453</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.009714832112602621</v>
+        <v>0.00971483211260262</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006209880273600722</v>
+        <v>0.006907519755734124</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00502584701577238</v>
+        <v>0.00536247918152224</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005080762745245895</v>
+        <v>0.006095655093542068</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003925264900481024</v>
+        <v>0.003704043095795754</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.004640792518039086</v>
+        <v>0.004764483561987085</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.006396695998685921</v>
+        <v>0.006460960534581377</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0138278794451275</v>
+        <v>0.01492956508178899</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006772754434585435</v>
+        <v>0.006607524157097057</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.006708641802645911</v>
+        <v>0.006646181994187447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.007630106390763123</v>
+        <v>0.007843286427406147</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01253429980249371</v>
+        <v>0.0121318001489022</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.006569108500823501</v>
+        <v>0.006637558982899243</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02304143255309233</v>
+        <v>0.02507239575192878</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02094741409518838</v>
+        <v>0.02090310183133655</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02242083551771071</v>
+        <v>0.02321147666006509</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01595637204148677</v>
+        <v>0.01562258185253162</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01792144440718869</v>
+        <v>0.01913198500244179</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02262136677592429</v>
+        <v>0.02215837852989661</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03597286598396866</v>
+        <v>0.03714974428768616</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01634336286143143</v>
+        <v>0.01784677147277608</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01769902048437431</v>
+        <v>0.0178445175473259</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01862861853701624</v>
+        <v>0.01946340277040164</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02606912370045614</v>
+        <v>0.02634560772303456</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01404916985952487</v>
+        <v>0.01399662582696746</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.01186144532022465</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.007683582821886484</v>
+        <v>0.007683582821886486</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0113049266740139</v>
@@ -1241,7 +1241,7 @@
         <v>0.01263311886270478</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.009371387981608154</v>
+        <v>0.009371387981608156</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007147232851096902</v>
+        <v>0.007156884207620992</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.006680149521062651</v>
+        <v>0.006726138565788882</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008133121728030129</v>
+        <v>0.007907948687461235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.005091376514890156</v>
+        <v>0.00480042045018388</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008086496470269313</v>
+        <v>0.007911422793353384</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01006907109977965</v>
+        <v>0.01077359374258148</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.009128408233092128</v>
+        <v>0.009693770657563288</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008481152975360976</v>
+        <v>0.008095209391692334</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.008656045164250567</v>
+        <v>0.008725999643284918</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.009427517940338385</v>
+        <v>0.009810404176243291</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.009849704873866494</v>
+        <v>0.0095505027239339</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.007479909920151092</v>
+        <v>0.00739150125303964</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01598676159928088</v>
+        <v>0.01562843073179364</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0143253067143151</v>
+        <v>0.01452863850705079</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01702566022041163</v>
+        <v>0.01712989639035469</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01172433349535105</v>
+        <v>0.01152544816835177</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0161338084125114</v>
+        <v>0.01584496231151602</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01895871762787916</v>
+        <v>0.01920581754949181</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01799736164018128</v>
+        <v>0.01889031630622855</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01453923036879515</v>
+        <v>0.01389923061570041</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01429731763218028</v>
+        <v>0.01444026151979718</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01540727137272386</v>
+        <v>0.015335866984293</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01622841290401865</v>
+        <v>0.01579545046547381</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01174222857486746</v>
+        <v>0.0117486007640259</v>
       </c>
     </row>
     <row r="19">
@@ -1609,31 +1609,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5172</v>
+        <v>4916</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2413</v>
+        <v>2293</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3412</v>
+        <v>3526</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1918</v>
+        <v>1995</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6315</v>
+        <v>6106</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3982</v>
+        <v>4452</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5266</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6086</v>
+        <v>6903</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6384</v>
+        <v>6685</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11134</v>
+        <v>11120</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6864</v>
+        <v>7230</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10096</v>
+        <v>9260</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19430</v>
+        <v>18573</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12845</v>
+        <v>13234</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13211</v>
+        <v>12122</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12113</v>
+        <v>11955</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>21868</v>
+        <v>20246</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>17785</v>
+        <v>19303</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>16214</v>
+        <v>15575</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5288</v>
+        <v>5824</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6204</v>
+        <v>6404</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4885</v>
+        <v>4803</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4724</v>
+        <v>4936</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5710</v>
+        <v>5841</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6127</v>
+        <v>6304</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2091</v>
+        <v>2108</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6610</v>
+        <v>6294</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>13505</v>
+        <v>13244</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>15464</v>
+        <v>15892</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8494</v>
+        <v>8471</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>13106</v>
+        <v>13583</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19879</v>
+        <v>18904</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23753</v>
+        <v>23261</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17680</v>
+        <v>17059</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21017</v>
+        <v>22462</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19018</v>
+        <v>19362</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>19791</v>
+        <v>19922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11933</v>
+        <v>13194</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19489</v>
+        <v>20148</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>32124</v>
+        <v>32226</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>37577</v>
+        <v>37307</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>23944</v>
+        <v>24050</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36007</v>
+        <v>35559</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1894</v>
+        <v>1014</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1887</v>
+        <v>1941</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4167</v>
+        <v>4254</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1715</v>
+        <v>1790</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3908</v>
+        <v>4305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6096</v>
+        <v>5984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1916</v>
+        <v>1901</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5715</v>
+        <v>5529</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7043</v>
+        <v>7502</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10295</v>
+        <v>10193</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8085</v>
+        <v>8116</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9299</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10889</v>
+        <v>11497</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12277</v>
+        <v>11718</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18498</v>
+        <v>19637</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11176</v>
+        <v>11261</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16071</v>
+        <v>16749</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20369</v>
+        <v>20094</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10882</v>
+        <v>11426</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16757</v>
+        <v>16252</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21641</v>
+        <v>21314</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>28154</v>
+        <v>26177</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>25992</v>
+        <v>25053</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23136</v>
+        <v>22676</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4407</v>
+        <v>4902</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4049</v>
+        <v>4320</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3926</v>
+        <v>4710</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3721</v>
+        <v>3511</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3778</v>
+        <v>3878</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5969</v>
+        <v>6029</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12125</v>
+        <v>13091</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7289</v>
+        <v>7111</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10222</v>
+        <v>10127</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>13268</v>
+        <v>13639</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>20675</v>
+        <v>20011</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13297</v>
+        <v>13435</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16352</v>
+        <v>17794</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16877</v>
+        <v>16841</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17323</v>
+        <v>17934</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15126</v>
+        <v>14810</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14588</v>
+        <v>15573</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21110</v>
+        <v>20678</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>31542</v>
+        <v>32574</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17588</v>
+        <v>19206</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>26968</v>
+        <v>27189</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>32393</v>
+        <v>33844</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>43000</v>
+        <v>43456</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>28437</v>
+        <v>28331</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>17545</v>
+        <v>17568</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19470</v>
+        <v>19604</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21669</v>
+        <v>21069</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>17299</v>
+        <v>16310</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>22165</v>
+        <v>21685</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>31670</v>
+        <v>33886</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>26174</v>
+        <v>27795</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>30748</v>
+        <v>29349</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>44974</v>
+        <v>45337</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>57130</v>
+        <v>59450</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>54485</v>
+        <v>52830</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>52532</v>
+        <v>51911</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>39243</v>
+        <v>38364</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>41753</v>
+        <v>42346</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>45362</v>
+        <v>45640</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>39836</v>
+        <v>39160</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>44222</v>
+        <v>43430</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>59630</v>
+        <v>60408</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>51604</v>
+        <v>54164</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>52711</v>
+        <v>50391</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>74284</v>
+        <v>75027</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>93367</v>
+        <v>92934</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>89770</v>
+        <v>87375</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>82467</v>
+        <v>82512</v>
       </c>
     </row>
     <row r="24">
